--- a/scripts/data/updated_nov_2023/esnfi_plans.xlsx
+++ b/scripts/data/updated_nov_2023/esnfi_plans.xlsx
@@ -154,7 +154,7 @@
     <t xml:space="preserve">nfi-assistance</t>
   </si>
   <si>
-    <t xml:space="preserve"># of people receiving cash assistance for basic household items / NFIs to meet their immediate needs</t>
+    <t xml:space="preserve"># of people receiving cash assistance for basic household items / NFIs  to meet their immediate needs</t>
   </si>
   <si>
     <t xml:space="preserve">host_community</t>
@@ -586,13 +586,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P138"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G138" activeCellId="0" sqref="G138"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9:G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -665,7 +665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
@@ -699,7 +699,7 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>16</v>
@@ -733,7 +733,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>25</v>
@@ -765,7 +765,7 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>16</v>
@@ -799,7 +799,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>31</v>
@@ -833,7 +833,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>32</v>
@@ -875,7 +875,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>32</v>
@@ -951,7 +951,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>48</v>
@@ -993,7 +993,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>32</v>
@@ -1025,7 +1025,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>53</v>
@@ -1067,7 +1067,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>53</v>
@@ -1109,7 +1109,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>59</v>
@@ -1143,7 +1143,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
         <v>59</v>
@@ -1177,7 +1177,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
         <v>59</v>
@@ -1211,7 +1211,7 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
         <v>59</v>
@@ -1245,7 +1245,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
         <v>59</v>
@@ -1279,7 +1279,7 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
         <v>62</v>
@@ -1313,7 +1313,7 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
         <v>62</v>
@@ -1347,7 +1347,7 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
         <v>62</v>
@@ -1389,7 +1389,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
         <v>48</v>
@@ -1431,7 +1431,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
         <v>66</v>
@@ -1465,7 +1465,7 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
         <v>66</v>
@@ -1499,7 +1499,7 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
         <v>67</v>
@@ -1531,7 +1531,7 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
         <v>69</v>
@@ -1563,7 +1563,7 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
         <v>67</v>
@@ -1597,7 +1597,7 @@
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
         <v>69</v>
@@ -1631,7 +1631,7 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
         <v>69</v>
@@ -1665,7 +1665,7 @@
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
         <v>69</v>
@@ -1697,7 +1697,7 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
         <v>69</v>
@@ -1731,7 +1731,7 @@
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
         <v>69</v>
@@ -1763,7 +1763,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
         <v>71</v>
@@ -1801,7 +1801,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
         <v>71</v>
@@ -1833,7 +1833,7 @@
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
         <v>71</v>
@@ -1865,7 +1865,7 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
         <v>73</v>
@@ -1907,7 +1907,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
         <v>73</v>
@@ -1947,7 +1947,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
         <v>73</v>
@@ -1989,7 +1989,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
         <v>73</v>
@@ -2023,7 +2023,7 @@
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
         <v>73</v>
@@ -2065,7 +2065,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
         <v>73</v>
@@ -2107,7 +2107,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
         <v>53</v>
@@ -2149,7 +2149,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
         <v>53</v>
@@ -2191,7 +2191,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
         <v>53</v>
@@ -2233,7 +2233,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
         <v>76</v>
@@ -2267,7 +2267,7 @@
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
       <c r="B46" s="6" t="s">
         <v>76</v>
@@ -2309,7 +2309,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
       <c r="B47" s="6" t="s">
         <v>76</v>
@@ -2343,7 +2343,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
         <v>76</v>
@@ -2377,7 +2377,7 @@
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
         <v>77</v>
@@ -2411,7 +2411,7 @@
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
         <v>77</v>
@@ -2445,7 +2445,7 @@
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
       <c r="B51" s="6" t="s">
         <v>77</v>
@@ -2479,7 +2479,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
       <c r="B52" s="6" t="s">
         <v>77</v>
@@ -2513,7 +2513,7 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
@@ -2555,7 +2555,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6"/>
       <c r="B54" s="6" t="s">
         <v>81</v>
@@ -2597,7 +2597,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="s">
         <v>82</v>
@@ -2639,7 +2639,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
         <v>82</v>
@@ -2681,7 +2681,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6"/>
       <c r="B57" s="6" t="s">
         <v>83</v>
@@ -2723,7 +2723,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6"/>
       <c r="B58" s="6" t="s">
         <v>83</v>
@@ -2757,7 +2757,7 @@
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
       <c r="B59" s="6" t="s">
         <v>83</v>
@@ -2791,7 +2791,7 @@
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
       <c r="B60" s="6" t="s">
         <v>84</v>
@@ -2833,7 +2833,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6"/>
       <c r="B61" s="6" t="s">
         <v>84</v>
@@ -2875,7 +2875,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6"/>
       <c r="B62" s="6" t="s">
         <v>85</v>
@@ -2907,7 +2907,7 @@
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6"/>
       <c r="B63" s="6" t="s">
         <v>62</v>
@@ -2939,7 +2939,7 @@
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
       <c r="B64" s="6" t="s">
         <v>89</v>
@@ -2971,7 +2971,7 @@
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
       <c r="B65" s="6" t="s">
         <v>90</v>
@@ -3097,7 +3097,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
       <c r="B68" s="6" t="s">
         <v>73</v>
@@ -3139,7 +3139,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
       <c r="B69" s="6" t="s">
         <v>77</v>
@@ -3173,7 +3173,7 @@
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6"/>
       <c r="B70" s="6" t="s">
         <v>48</v>
@@ -3205,7 +3205,7 @@
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6"/>
       <c r="B71" s="6" t="s">
         <v>48</v>
@@ -3237,7 +3237,7 @@
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6"/>
       <c r="B72" s="6" t="s">
         <v>53</v>
@@ -3279,7 +3279,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6"/>
       <c r="B73" s="6" t="s">
         <v>83</v>
@@ -3313,7 +3313,7 @@
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6"/>
       <c r="B74" s="6" t="s">
         <v>92</v>
@@ -3355,7 +3355,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
       <c r="B75" s="6" t="s">
         <v>53</v>
@@ -3397,7 +3397,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
       <c r="B76" s="6" t="s">
         <v>53</v>
@@ -3439,7 +3439,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
       <c r="B77" s="6" t="s">
         <v>93</v>
@@ -3469,7 +3469,7 @@
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
       <c r="B78" s="6" t="s">
         <v>94</v>
@@ -3501,7 +3501,7 @@
       <c r="O78" s="6"/>
       <c r="P78" s="6"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
       <c r="B79" s="6" t="s">
         <v>85</v>
@@ -3533,7 +3533,7 @@
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
       <c r="B80" s="6" t="s">
         <v>96</v>
@@ -3563,7 +3563,7 @@
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
       <c r="B81" s="6" t="s">
         <v>96</v>
@@ -3593,7 +3593,7 @@
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
       <c r="B82" s="6" t="s">
         <v>48</v>
@@ -3625,7 +3625,7 @@
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
       <c r="B83" s="6" t="s">
         <v>53</v>
@@ -3667,7 +3667,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
       <c r="B84" s="6" t="s">
         <v>53</v>
@@ -3709,7 +3709,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
       <c r="B85" s="6" t="s">
         <v>53</v>
@@ -3741,7 +3741,7 @@
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
       <c r="B86" s="6" t="s">
         <v>53</v>
@@ -3783,7 +3783,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
       <c r="B87" s="6" t="s">
         <v>85</v>
@@ -3815,7 +3815,7 @@
       <c r="O87" s="6"/>
       <c r="P87" s="6"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
       <c r="B88" s="6" t="s">
         <v>85</v>
@@ -3847,7 +3847,7 @@
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
       <c r="B89" s="6" t="s">
         <v>100</v>
@@ -3887,7 +3887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
       <c r="B90" s="6" t="s">
         <v>53</v>
@@ -3929,7 +3929,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
       <c r="B91" s="6" t="s">
         <v>101</v>
@@ -3971,7 +3971,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
       <c r="B92" s="6" t="s">
         <v>53</v>
@@ -4013,7 +4013,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
       <c r="B93" s="6" t="s">
         <v>53</v>
@@ -4055,7 +4055,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
       <c r="B94" s="6" t="s">
         <v>53</v>
@@ -4097,7 +4097,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
       <c r="B95" s="6" t="s">
         <v>85</v>
@@ -4129,7 +4129,7 @@
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
       <c r="B96" s="6" t="s">
         <v>85</v>
@@ -4161,7 +4161,7 @@
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
       <c r="B97" s="6" t="s">
         <v>85</v>
@@ -4193,7 +4193,7 @@
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
       <c r="B98" s="6" t="s">
         <v>85</v>
@@ -4225,7 +4225,7 @@
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
       <c r="B99" s="6" t="s">
         <v>85</v>
@@ -4257,7 +4257,7 @@
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
       <c r="B100" s="6" t="s">
         <v>48</v>
@@ -4299,7 +4299,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6"/>
       <c r="B101" s="6" t="s">
         <v>90</v>
@@ -4341,7 +4341,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6"/>
       <c r="B102" s="6" t="s">
         <v>100</v>
@@ -4381,7 +4381,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6"/>
       <c r="B103" s="6" t="s">
         <v>53</v>
@@ -4423,7 +4423,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6"/>
       <c r="B104" s="6" t="s">
         <v>53</v>
@@ -4465,7 +4465,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6"/>
       <c r="B105" s="6" t="s">
         <v>101</v>
@@ -4549,7 +4549,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6"/>
       <c r="B107" s="6" t="s">
         <v>105</v>
@@ -4581,7 +4581,7 @@
       <c r="O107" s="6"/>
       <c r="P107" s="6"/>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6"/>
       <c r="B108" s="6" t="s">
         <v>94</v>
@@ -4613,7 +4613,7 @@
       <c r="O108" s="6"/>
       <c r="P108" s="6"/>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
       <c r="B109" s="6" t="s">
         <v>100</v>
@@ -4653,7 +4653,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
       <c r="B110" s="6" t="s">
         <v>108</v>
@@ -4683,7 +4683,7 @@
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
       <c r="B111" s="6" t="s">
         <v>89</v>
@@ -4715,7 +4715,7 @@
       <c r="O111" s="6"/>
       <c r="P111" s="6"/>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
       <c r="B112" s="6" t="s">
         <v>89</v>
@@ -4747,7 +4747,7 @@
       <c r="O112" s="6"/>
       <c r="P112" s="6"/>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6"/>
       <c r="B113" s="6" t="s">
         <v>85</v>
@@ -4779,7 +4779,7 @@
       <c r="O113" s="6"/>
       <c r="P113" s="6"/>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6"/>
       <c r="B114" s="6" t="s">
         <v>48</v>
@@ -4821,7 +4821,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6"/>
       <c r="B115" s="6" t="s">
         <v>48</v>
@@ -4863,7 +4863,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6"/>
       <c r="B116" s="6" t="s">
         <v>105</v>
@@ -4895,7 +4895,7 @@
       <c r="O116" s="6"/>
       <c r="P116" s="6"/>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6"/>
       <c r="B117" s="6" t="s">
         <v>62</v>
@@ -4937,7 +4937,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6"/>
       <c r="B118" s="6" t="s">
         <v>112</v>
@@ -4979,7 +4979,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6"/>
       <c r="B119" s="6" t="s">
         <v>112</v>
@@ -5021,7 +5021,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6"/>
       <c r="B120" s="6" t="s">
         <v>112</v>
@@ -5063,7 +5063,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6"/>
       <c r="B121" s="6" t="s">
         <v>112</v>
@@ -5097,7 +5097,7 @@
       <c r="O121" s="6"/>
       <c r="P121" s="6"/>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6"/>
       <c r="B122" s="6" t="s">
         <v>112</v>
@@ -5131,7 +5131,7 @@
       <c r="O122" s="6"/>
       <c r="P122" s="6"/>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6"/>
       <c r="B123" s="6" t="s">
         <v>101</v>
@@ -5163,7 +5163,7 @@
       <c r="O123" s="6"/>
       <c r="P123" s="6"/>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6"/>
       <c r="B124" s="6" t="s">
         <v>113</v>
@@ -5195,7 +5195,7 @@
       <c r="O124" s="6"/>
       <c r="P124" s="6"/>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6"/>
       <c r="B125" s="6" t="s">
         <v>113</v>
@@ -5237,7 +5237,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6"/>
       <c r="B126" s="6" t="s">
         <v>113</v>
@@ -5269,7 +5269,7 @@
       <c r="O126" s="6"/>
       <c r="P126" s="6"/>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6"/>
       <c r="B127" s="6" t="s">
         <v>114</v>
@@ -5301,7 +5301,7 @@
       <c r="O127" s="6"/>
       <c r="P127" s="6"/>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6"/>
       <c r="B128" s="6" t="s">
         <v>115</v>
@@ -5343,7 +5343,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6"/>
       <c r="B129" s="6" t="s">
         <v>115</v>
@@ -5375,7 +5375,7 @@
       <c r="O129" s="6"/>
       <c r="P129" s="6"/>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6"/>
       <c r="B130" s="6" t="s">
         <v>116</v>
@@ -5407,7 +5407,7 @@
       <c r="O130" s="6"/>
       <c r="P130" s="6"/>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6"/>
       <c r="B131" s="6" t="s">
         <v>101</v>
@@ -5439,7 +5439,7 @@
       <c r="O131" s="6"/>
       <c r="P131" s="6"/>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6"/>
       <c r="B132" s="6" t="s">
         <v>85</v>
@@ -5471,7 +5471,7 @@
       <c r="O132" s="6"/>
       <c r="P132" s="6"/>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6"/>
       <c r="B133" s="6" t="s">
         <v>118</v>
@@ -5503,7 +5503,7 @@
       <c r="O133" s="6"/>
       <c r="P133" s="6"/>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6"/>
       <c r="B134" s="6" t="s">
         <v>119</v>
@@ -5535,7 +5535,7 @@
       <c r="O134" s="6"/>
       <c r="P134" s="6"/>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
       <c r="B135" s="6" t="s">
         <v>119</v>
@@ -5577,7 +5577,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6"/>
       <c r="B136" s="6" t="s">
         <v>119</v>
@@ -5619,7 +5619,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6"/>
       <c r="B137" s="6" t="s">
         <v>96</v>
@@ -5651,7 +5651,7 @@
       <c r="O137" s="6"/>
       <c r="P137" s="6"/>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6"/>
       <c r="B138" s="6" t="s">
         <v>120</v>
@@ -5684,7 +5684,13 @@
       <c r="P138" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P138"/>
+  <autoFilter ref="A1:P138">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="# of people receiving cash assistance for basic household items / NFIs to meet their immediate needs"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
